--- a/data/hotels_by_city/Houston/Houston_shard_340.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_340.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56650-d1235784-Reviews-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Columbus-Hotels-Holiday-Inn-Express-Hotel-Suites-Sealy.h2437167.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531323247862&amp;cancellable=false&amp;regionId=6131004&amp;vip=false&amp;c=89f761fc-da96-4e44-99bf-64b477eaea10&amp;mctc=9&amp;exp_dp=95.99&amp;exp_ts=1531323248355&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,711 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r591784546-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>56650</t>
+  </si>
+  <si>
+    <t>1235784</t>
+  </si>
+  <si>
+    <t>591784546</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>1) room smelled smokey2) sheets were not clean3) phones did not work4) weird wet ceiling5) a/c barely worked6) bathroom "iffy" clean7) on checking in - room choice was not correctequals:   we immediately left</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r574240945-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>574240945</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative experience with front desk lady </t>
+  </si>
+  <si>
+    <t>Generally I have highly favorable experience with the Holiday Inn Express chain.  We have stayed at least for over 100 nights in many different places/Express hotels.  Of all the stays so far, this one was pretty disappointing. 
+But the frontal desk lady was quite rude.  1) When we arrived on 4/14/2018 evening she was on the phone, ignoring us.  This was okay since she seemed to be talking to a prospective guest.  But if I were her I would prefer holding down the phone for a second and tell the arriving guest(s) “please wait, I will be with you momentarily” instead of the way she handled our arrival.  After all, you don’t want to let your arriving guests feel abandoned/not paid attention to. 
+2) She seemed to have an attitude, since after she hung up she simply asked me “What is your name?” without any greetings what so ever.  There was no smile, simply a stone face.  After I told her my name and handed her my id, she followed up with the paperwork.  Although a Spire Elite l Member, I did not receive any upgrade (yeah-I understand it all depended on the availability, but at least she could explain something to the effect that “we are sorry but we are fully booked, so we cannot upgrade you, although we recognize your status).  Further more, there was no normal thank you points or snacks or water as a welcome gesture...Generally I have highly favorable experience with the Holiday Inn Express chain.  We have stayed at least for over 100 nights in many different places/Express hotels.  Of all the stays so far, this one was pretty disappointing. But the frontal desk lady was quite rude.  1) When we arrived on 4/14/2018 evening she was on the phone, ignoring us.  This was okay since she seemed to be talking to a prospective guest.  But if I were her I would prefer holding down the phone for a second and tell the arriving guest(s) “please wait, I will be with you momentarily” instead of the way she handled our arrival.  After all, you don’t want to let your arriving guests feel abandoned/not paid attention to. 2) She seemed to have an attitude, since after she hung up she simply asked me “What is your name?” without any greetings what so ever.  There was no smile, simply a stone face.  After I told her my name and handed her my id, she followed up with the paperwork.  Although a Spire Elite l Member, I did not receive any upgrade (yeah-I understand it all depended on the availability, but at least she could explain something to the effect that “we are sorry but we are fully booked, so we cannot upgrade you, although we recognize your status).  Further more, there was no normal thank you points or snacks or water as a welcome gesture toward a Sprire Elite member.  The room was small but manageable.  Looked clean.  The WiFi was descent.  The breakfast was fine.  But by comparison, the staff at Hampton Inn in Lordsburg, New Mexico was more friendly.  Overall, I don’t appreciate the way the front desk lady treated us.  We as customers looked like inconveniences to her.  She is quite beautiful on face, but the brief interaction with her left a negative impression of the hotel.  For this I give the hotel a 2 star rating.  I would give all other Holiday Inn Express hotels that I have experienced so far 5 stars by comparison. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Generally I have highly favorable experience with the Holiday Inn Express chain.  We have stayed at least for over 100 nights in many different places/Express hotels.  Of all the stays so far, this one was pretty disappointing. 
+But the frontal desk lady was quite rude.  1) When we arrived on 4/14/2018 evening she was on the phone, ignoring us.  This was okay since she seemed to be talking to a prospective guest.  But if I were her I would prefer holding down the phone for a second and tell the arriving guest(s) “please wait, I will be with you momentarily” instead of the way she handled our arrival.  After all, you don’t want to let your arriving guests feel abandoned/not paid attention to. 
+2) She seemed to have an attitude, since after she hung up she simply asked me “What is your name?” without any greetings what so ever.  There was no smile, simply a stone face.  After I told her my name and handed her my id, she followed up with the paperwork.  Although a Spire Elite l Member, I did not receive any upgrade (yeah-I understand it all depended on the availability, but at least she could explain something to the effect that “we are sorry but we are fully booked, so we cannot upgrade you, although we recognize your status).  Further more, there was no normal thank you points or snacks or water as a welcome gesture...Generally I have highly favorable experience with the Holiday Inn Express chain.  We have stayed at least for over 100 nights in many different places/Express hotels.  Of all the stays so far, this one was pretty disappointing. But the frontal desk lady was quite rude.  1) When we arrived on 4/14/2018 evening she was on the phone, ignoring us.  This was okay since she seemed to be talking to a prospective guest.  But if I were her I would prefer holding down the phone for a second and tell the arriving guest(s) “please wait, I will be with you momentarily” instead of the way she handled our arrival.  After all, you don’t want to let your arriving guests feel abandoned/not paid attention to. 2) She seemed to have an attitude, since after she hung up she simply asked me “What is your name?” without any greetings what so ever.  There was no smile, simply a stone face.  After I told her my name and handed her my id, she followed up with the paperwork.  Although a Spire Elite l Member, I did not receive any upgrade (yeah-I understand it all depended on the availability, but at least she could explain something to the effect that “we are sorry but we are fully booked, so we cannot upgrade you, although we recognize your status).  Further more, there was no normal thank you points or snacks or water as a welcome gesture toward a Sprire Elite member.  The room was small but manageable.  Looked clean.  The WiFi was descent.  The breakfast was fine.  But by comparison, the staff at Hampton Inn in Lordsburg, New Mexico was more friendly.  Overall, I don’t appreciate the way the front desk lady treated us.  We as customers looked like inconveniences to her.  She is quite beautiful on face, but the brief interaction with her left a negative impression of the hotel.  For this I give the hotel a 2 star rating.  I would give all other Holiday Inn Express hotels that I have experienced so far 5 stars by comparison. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r556791556-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>556791556</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean convenient Location  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always a pleasant stay!!! Located by Walmart, forth time staying here, always clean easy access to I-10, and several restaurants to choose from. Quit community, outside of Houston. Great Breakfast. Nicest hotel in Sealy. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r540494525-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>540494525</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Great Two Night Stay. Tried For Three Nights</t>
+  </si>
+  <si>
+    <t>Had a very nice stay while working in this area. Rooms were very clean and in order.Staff was excellent. They had breakfast ready early for us Oil Field Hands that have to leave early. Checked out after two nights, did not finish job and went back to check back in but they were full for that night, could not get a room there. Being full says they are a very good place to stay. I will stay there when I am working in that area.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r535859753-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>535859753</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Clean and quiet!</t>
+  </si>
+  <si>
+    <t>I made a last-minute weekend reservation here for a wedding.  The entire property is spotless and very accommodating.  The staff were friendly and helpful.  My room wasn't ready at 2:30 (check-in time was 3) but the housekeeping staff made my room ready as quickly as possible.  The hotel is just far enough from the interstate to be very quiet, yet close enough to be easily accessible.  There is a Walmart right behind the hotel and several eating establishments within walking distance.  The breakfast was delicious, and even provided healthy options including egg white and veggie omelets and turkey sausage in addition to the usual hot and cold cereals, waffles, eggs, biscuits, sausages, etc.  Overall, I was very pleased with my stay here from the reservation to check-out, and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I made a last-minute weekend reservation here for a wedding.  The entire property is spotless and very accommodating.  The staff were friendly and helpful.  My room wasn't ready at 2:30 (check-in time was 3) but the housekeeping staff made my room ready as quickly as possible.  The hotel is just far enough from the interstate to be very quiet, yet close enough to be easily accessible.  There is a Walmart right behind the hotel and several eating establishments within walking distance.  The breakfast was delicious, and even provided healthy options including egg white and veggie omelets and turkey sausage in addition to the usual hot and cold cereals, waffles, eggs, biscuits, sausages, etc.  Overall, I was very pleased with my stay here from the reservation to check-out, and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r513292682-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>513292682</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Watch your belongings!!</t>
+  </si>
+  <si>
+    <t>I left my cell phone in the room floor during the breakfast. When I returned, it was gone. I asked the one of the made who cleaned my room if she saw it. She said "No... I didn't see it in #201..." She started talking loud with another maid and seems like in panic mode. Then she came to me with my cell phone said," I think I saw something in the pillow.... is this it..? ". She had my cell phone with credit cards.I reported to Manager what happened. He said "OK". That was it.Additional to that we had four rooms, all rooms smelled of mold heavily. The room light wasn't working, etc...It was Horrible staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>I left my cell phone in the room floor during the breakfast. When I returned, it was gone. I asked the one of the made who cleaned my room if she saw it. She said "No... I didn't see it in #201..." She started talking loud with another maid and seems like in panic mode. Then she came to me with my cell phone said," I think I saw something in the pillow.... is this it..? ". She had my cell phone with credit cards.I reported to Manager what happened. He said "OK". That was it.Additional to that we had four rooms, all rooms smelled of mold heavily. The room light wasn't working, etc...It was Horrible staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r450734739-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>450734739</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one night and the rooms were awesome. The beds are comfortable. The fitness center was excellent. The treadmills and exercise bikes all had their own TVs. The fitness center was one of the best I have seen in a hotel. They did have breakfast but I didn't eat it because I had to be at work before they started serving. Stay here when in Sealy,TX.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r450517041-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>450517041</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay, needs rehab</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night. I would not recommend it but options are limited in this town. Stay here as a last resort. 
+After we checked in we walked down the third floor hallway. There was a bad smell. Like bad body odor. The room was as expected. A lamp did not work but other than that looked ok. Plenty of soap and towels. Keureg in the room. Mattress was ok. Not great. Bedding had an odor but it seemed clean to me. We'd had a long day and we were too tired to notice anything. 
+Upon waking we noticed...clock was not working, lamp was smashed and the lampshade had mold. Oh my gosh, the things you notice in the light of day! Headboards were dirty, like splattered with something. The chair at the desk was very, very worn. I have a similar one that gets used daily by my kids and myself and it is no where near as bad. This one looked like it had years of use. 
+Free breakfast. Eggs tasted fake and burned. Juice had a funny chemical taste. Or maybe just old. Pancakes were bad. How do you make pancakes taste bad? Even with syrup they were nasty. Cinnamon rolls were ok. Coffee was ok. The area was clean and well stocked but the manager should be forced to taste the food. 
+This place is like a mix of good and bad. Acceptable, but needs repairs...Stayed here 1 night. I would not recommend it but options are limited in this town. Stay here as a last resort. After we checked in we walked down the third floor hallway. There was a bad smell. Like bad body odor. The room was as expected. A lamp did not work but other than that looked ok. Plenty of soap and towels. Keureg in the room. Mattress was ok. Not great. Bedding had an odor but it seemed clean to me. We'd had a long day and we were too tired to notice anything. Upon waking we noticed...clock was not working, lamp was smashed and the lampshade had mold. Oh my gosh, the things you notice in the light of day! Headboards were dirty, like splattered with something. The chair at the desk was very, very worn. I have a similar one that gets used daily by my kids and myself and it is no where near as bad. This one looked like it had years of use. Free breakfast. Eggs tasted fake and burned. Juice had a funny chemical taste. Or maybe just old. Pancakes were bad. How do you make pancakes taste bad? Even with syrup they were nasty. Cinnamon rolls were ok. Coffee was ok. The area was clean and well stocked but the manager should be forced to taste the food. This place is like a mix of good and bad. Acceptable, but needs repairs and better management oversight of the details.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night. I would not recommend it but options are limited in this town. Stay here as a last resort. 
+After we checked in we walked down the third floor hallway. There was a bad smell. Like bad body odor. The room was as expected. A lamp did not work but other than that looked ok. Plenty of soap and towels. Keureg in the room. Mattress was ok. Not great. Bedding had an odor but it seemed clean to me. We'd had a long day and we were too tired to notice anything. 
+Upon waking we noticed...clock was not working, lamp was smashed and the lampshade had mold. Oh my gosh, the things you notice in the light of day! Headboards were dirty, like splattered with something. The chair at the desk was very, very worn. I have a similar one that gets used daily by my kids and myself and it is no where near as bad. This one looked like it had years of use. 
+Free breakfast. Eggs tasted fake and burned. Juice had a funny chemical taste. Or maybe just old. Pancakes were bad. How do you make pancakes taste bad? Even with syrup they were nasty. Cinnamon rolls were ok. Coffee was ok. The area was clean and well stocked but the manager should be forced to taste the food. 
+This place is like a mix of good and bad. Acceptable, but needs repairs...Stayed here 1 night. I would not recommend it but options are limited in this town. Stay here as a last resort. After we checked in we walked down the third floor hallway. There was a bad smell. Like bad body odor. The room was as expected. A lamp did not work but other than that looked ok. Plenty of soap and towels. Keureg in the room. Mattress was ok. Not great. Bedding had an odor but it seemed clean to me. We'd had a long day and we were too tired to notice anything. Upon waking we noticed...clock was not working, lamp was smashed and the lampshade had mold. Oh my gosh, the things you notice in the light of day! Headboards were dirty, like splattered with something. The chair at the desk was very, very worn. I have a similar one that gets used daily by my kids and myself and it is no where near as bad. This one looked like it had years of use. Free breakfast. Eggs tasted fake and burned. Juice had a funny chemical taste. Or maybe just old. Pancakes were bad. How do you make pancakes taste bad? Even with syrup they were nasty. Cinnamon rolls were ok. Coffee was ok. The area was clean and well stocked but the manager should be forced to taste the food. This place is like a mix of good and bad. Acceptable, but needs repairs and better management oversight of the details.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r430747196-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>430747196</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Short but good stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night when was in the area for business.Good hotel; well maintained and friendly staff. Rooms are spacious and well maintained.Breakfast is up to par with IHG standards. WIFI is free and has good speed.All together a nice hotel for the traveller who is passing through.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r427168157-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>427168157</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Very negative experience at this hotel.</t>
+  </si>
+  <si>
+    <t>Room smelled like mildew. Bedside table lamp bulb out. Clock didn't work. WIFI (Internet access) didn't work.  Business center computers not useable.breakfast room furniture shabby. Desk clerk couldn't help with internet access; stated she is only a desk clerk, not IT person.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Room smelled like mildew. Bedside table lamp bulb out. Clock didn't work. WIFI (Internet access) didn't work.  Business center computers not useable.breakfast room furniture shabby. Desk clerk couldn't help with internet access; stated she is only a desk clerk, not IT person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r418804828-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>418804828</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Oasis in Sealy</t>
+  </si>
+  <si>
+    <t>A grateful thank you to the wonderful staff at Holiday Inn Express. My colleagues and I were stranded in Sealy after my tire blew out on our drive back from Houston to Austin. The night manager Kiana, was especially courteous and gracious, helping the three of us get settled into our rooms and order delivery for dinner. Bonus: the breakfast buffet is tops. Would give five stars overall but experienced internet connectivity issues. Thank you, thank you, everyone!!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r407549716-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>407549716</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Sealy - Great Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>We checked in late and the lady at the front was super sweet!! Thank you, it had been a long day.The room was very nice and the beds were comfy.  The breakfast was also good and I don't usually make it up in time, but they had fresh fruit and meats, along with bread items.  Worked for me.We will definitely stay here again when working in the area.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r340384087-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>340384087</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Smelly, musty, dirty</t>
+  </si>
+  <si>
+    <t>Room musty, all corners of room need cleaning, lamps need bulbs, lamp shade scorched by bulb, all furniture needs dusting and clean, microwave needs cleaning, carpet dirty needs to be replaced. Did not enjoy stay for the price of $130 a night. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Room musty, all corners of room need cleaning, lamps need bulbs, lamp shade scorched by bulb, all furniture needs dusting and clean, microwave needs cleaning, carpet dirty needs to be replaced. Did not enjoy stay for the price of $130 a night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r328068829-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>328068829</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed it! </t>
+  </si>
+  <si>
+    <t>Stayed here for a short night, welcoming and friendly staff at reception. Rooms were spotless clean, beds spacious and comfy (several pillows provided). Breakfast was ok, lacked a little tlc, breakfast area great place to relax and watch a huge TV! Loved also the aquarium right in between breakfast room and reception. Will definitely be back again. Thank you.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r321406301-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>321406301</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Needs a Little More Housekeeping</t>
+  </si>
+  <si>
+    <t>One can normally expect a very good hotel from Holiday Inn.Nice looking facility. Great food and selection of food. Helpful staff. And clean rooms. Normally I give Holiday Inns five stars. But this one fell down in a couple of areas. First of all, I found some dabs of a "mud-like" substance on the bathtub walls. Housekeeping should have found this. And the second thing that didn;t seem right to me was that the desk clerk didn't honor my government ID; he simply said that the hotel could only take so many. How did he know that the limit had been reached? He didn't even try to plug it into the computer. And the next night of  our trip we stayed at another Holiday Inn, and the same thing happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>One can normally expect a very good hotel from Holiday Inn.Nice looking facility. Great food and selection of food. Helpful staff. And clean rooms. Normally I give Holiday Inns five stars. But this one fell down in a couple of areas. First of all, I found some dabs of a "mud-like" substance on the bathtub walls. Housekeeping should have found this. And the second thing that didn;t seem right to me was that the desk clerk didn't honor my government ID; he simply said that the hotel could only take so many. How did he know that the limit had been reached? He didn't even try to plug it into the computer. And the next night of  our trip we stayed at another Holiday Inn, and the same thing happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r289813641-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>289813641</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>on the backside of the Holiday Inn expectations</t>
+  </si>
+  <si>
+    <t>In my experience, Holiday Inn Express is pretty consistent.  Sometimes a little better, sometimes, not.  I expected a little better having stayed at many HIE's throughout the country.The room had a slight odor, maybe damp at one time.  The carpet needed to be stretched again.  Again, everything else was up to par for what you should expect from HIE.Probably would not make the above comments if it weren't for the $153 dollars is cost to stay here, in Sealy, TX.  Quite expensive, in my opinion, for an HIE in the middle of nowhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>In my experience, Holiday Inn Express is pretty consistent.  Sometimes a little better, sometimes, not.  I expected a little better having stayed at many HIE's throughout the country.The room had a slight odor, maybe damp at one time.  The carpet needed to be stretched again.  Again, everything else was up to par for what you should expect from HIE.Probably would not make the above comments if it weren't for the $153 dollars is cost to stay here, in Sealy, TX.  Quite expensive, in my opinion, for an HIE in the middle of nowhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r278226315-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>278226315</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>What happened?</t>
+  </si>
+  <si>
+    <t>Ooops!  We stayed in 301. Our toilet flushed up instead of down. We ordered a wake up call at 2:20 AM that didn't happen. We were supposed to be at the job ~3 blocks away at 3 sharp. A passing train's horn woke us up at 3:20 AM. The front desk said wake up calls are computer generated and their computer showed the call was triggered. Other than that, the check in staff was courteous. The room was clean. If I stayed here again I'd ask for a room facing WalMart instead of the train track; I'd bring a toilet plunger; and I'd make sure to charge my cell phone so I'd have my own alarm for waking up.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2015</t>
+  </si>
+  <si>
+    <t>Ooops!  We stayed in 301. Our toilet flushed up instead of down. We ordered a wake up call at 2:20 AM that didn't happen. We were supposed to be at the job ~3 blocks away at 3 sharp. A passing train's horn woke us up at 3:20 AM. The front desk said wake up calls are computer generated and their computer showed the call was triggered. Other than that, the check in staff was courteous. The room was clean. If I stayed here again I'd ask for a room facing WalMart instead of the train track; I'd bring a toilet plunger; and I'd make sure to charge my cell phone so I'd have my own alarm for waking up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r263352556-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>263352556</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Enormous rooms!</t>
+  </si>
+  <si>
+    <t>we stayed here last year while on business in the area.  The rooms are huge and very clean!  This hotel is out of the way for us but we don't mind as the rooms in Brenham this time of year are so expensive due to events in the area and not as clean and nice!  The front desk staff is very helpful as well.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r227781224-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>227781224</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Hotel Review</t>
+  </si>
+  <si>
+    <t>During travel across the USA, I was driving from Florida to California.  I decided to stop in Sealy, Texas as the Holiday Inn Express.  I enjoyed my stay and the hotel was super clean and up to date with modern features.  The hotel staff was friendly and processed the check-in very quickly.  I enjoyed the stay.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r226287825-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>226287825</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>My husband was on a job nearby, so we stayed at this hotel. It was well kept &amp; clean. The pool didn't work the entire time we were there (was this yucky green) and you could tell they were pitting chemical in the pool but not much improvement while we were on our trip (2 nights). Which I must add was a total bummer with a 3 yr. old in August. Although they had nice staff and a great breakfast. I would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r224261725-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>224261725</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Sealy TX</t>
+  </si>
+  <si>
+    <t>Hotel rm was cleaned consistently, staff was helpful and courteous, the morning breakfast had something for everyone to eat. The wifi was strong and most importantly the air conditioning worked great. I would definitely recommend this hotel to business travellers or families with children.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r201444784-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>201444784</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Very good-average</t>
+  </si>
+  <si>
+    <t>Convenient location when traveling. Staff courteous. Room average, complimentary breakfast was not very good, eggs were like sitting in water unable to eat them.overall would rate this as average to very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r201004762-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>201004762</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable place to stay</t>
+  </si>
+  <si>
+    <t>They put us in a handicapped room when we arrived at 5 pm, although the place did not appear to be full.  Didn't understand this, but didn't complain; it was still a nice room and very comfortable. The TV's are small, but at least there was a working Guide channel--that was nice for a change.  The beds were surprisingly comfortable, and the shower was excellent.  It was hard to darken the room due to all the security flood lights on one side and Wal-Mart parking lot on the other.  Hotels in this situation need to have extremely well-fitting window coverings, and they never do.  There was some train noise although it didn't wake me up at night.  Trains just go with the territory in a lot of small towns, and they are required by law to blow the horn at certain types of intersections.  If you have no tolerance for trains, stay somewhere else, but I actually find trains strangely soothing--they take me back to childhood, I suppose.  This hotel is ideally located for me, so I will tolerate the nostalgic sounds of a small town.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>They put us in a handicapped room when we arrived at 5 pm, although the place did not appear to be full.  Didn't understand this, but didn't complain; it was still a nice room and very comfortable. The TV's are small, but at least there was a working Guide channel--that was nice for a change.  The beds were surprisingly comfortable, and the shower was excellent.  It was hard to darken the room due to all the security flood lights on one side and Wal-Mart parking lot on the other.  Hotels in this situation need to have extremely well-fitting window coverings, and they never do.  There was some train noise although it didn't wake me up at night.  Trains just go with the territory in a lot of small towns, and they are required by law to blow the horn at certain types of intersections.  If you have no tolerance for trains, stay somewhere else, but I actually find trains strangely soothing--they take me back to childhood, I suppose.  This hotel is ideally located for me, so I will tolerate the nostalgic sounds of a small town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r200131608-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>200131608</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Superb except for the trains!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while on business in the area.  The room was a great room and very clean and enormous, but boy those trains that come through at the crack of dawn are heavy on the horns!  There were three trains a night, so I slept well but was up early!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r146265255-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>146265255</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Sealy disaster</t>
+  </si>
+  <si>
+    <t>1st room, lock did not work.  Just opened the door and walked in.  Could not lock it from inside.2nd room. Bathtub filled with silverfish.3rd room the same, but fewer.Moved to 2nd floor.4th room more silverfish.I was told no one else complained.Needless to say we left.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded December 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2012</t>
+  </si>
+  <si>
+    <t>1st room, lock did not work.  Just opened the door and walked in.  Could not lock it from inside.2nd room. Bathtub filled with silverfish.3rd room the same, but fewer.Moved to 2nd floor.4th room more silverfish.I was told no one else complained.Needless to say we left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r134541578-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>134541578</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Manager is the worst!</t>
+  </si>
+  <si>
+    <t>Checked into and out of hotel within 1 hour because of a leak in the ceiling.  Was promised a full credit. Was not offered to change rooms. My credit card was charged full price.  Manager Jay, told me over the phone "call whoever you want to, I will not reverse the credit"  Also train runs every 2 hours all night long and horn blows everytime.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r132619906-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>132619906</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Don't expect a fold-out bed</t>
+  </si>
+  <si>
+    <t>We recently stayed at this HI Express in Sealy, TX. We had made advance reservations on line and reserved a suite assuming there would be a foldout sofa in the living area for our grandson. 
+Imagine our surprise when it only had a small love seat that didn't make a bed. The desk clerk stated that "not all of their suites and fold out sofas" and the ones they have were already occupied by residents staying for the weekend (this was early Friday afternoon). According to her they were first come first served-wonder how early you have to arrive to get one?  They did provide a roll away at my request and insisted the description online states all suites do not have fold out beds (NOT- I checked!). I asked if they could adjust the rate and after some thought, the clerk said they could not since we had made the reservation online and they couldn't change online rates!  Since when?  
+We  were later  also surprised to know that a train track runs in front of the hotel with trains about every hour or so all night long! Guess which side we were on?  Hardly slept all night! Guess they haven't heard of insulated windows!  
+Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need...We recently stayed at this HI Express in Sealy, TX. We had made advance reservations on line and reserved a suite assuming there would be a foldout sofa in the living area for our grandson. Imagine our surprise when it only had a small love seat that didn't make a bed. The desk clerk stated that "not all of their suites and fold out sofas" and the ones they have were already occupied by residents staying for the weekend (this was early Friday afternoon). According to her they were first come first served-wonder how early you have to arrive to get one?  They did provide a roll away at my request and insisted the description online states all suites do not have fold out beds (NOT- I checked!). I asked if they could adjust the rate and after some thought, the clerk said they could not since we had made the reservation online and they couldn't change online rates!  Since when?  We  were later  also surprised to know that a train track runs in front of the hotel with trains about every hour or so all night long! Guess which side we were on?  Hardly slept all night! Guess they haven't heard of insulated windows!  Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need to learn that not all guests are going to accept anything they want to deliverand there are other options, albeit in some cases not in that town." Old 300 member"MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We recently stayed at this HI Express in Sealy, TX. We had made advance reservations on line and reserved a suite assuming there would be a foldout sofa in the living area for our grandson. 
+Imagine our surprise when it only had a small love seat that didn't make a bed. The desk clerk stated that "not all of their suites and fold out sofas" and the ones they have were already occupied by residents staying for the weekend (this was early Friday afternoon). According to her they were first come first served-wonder how early you have to arrive to get one?  They did provide a roll away at my request and insisted the description online states all suites do not have fold out beds (NOT- I checked!). I asked if they could adjust the rate and after some thought, the clerk said they could not since we had made the reservation online and they couldn't change online rates!  Since when?  
+We  were later  also surprised to know that a train track runs in front of the hotel with trains about every hour or so all night long! Guess which side we were on?  Hardly slept all night! Guess they haven't heard of insulated windows!  
+Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need...We recently stayed at this HI Express in Sealy, TX. We had made advance reservations on line and reserved a suite assuming there would be a foldout sofa in the living area for our grandson. Imagine our surprise when it only had a small love seat that didn't make a bed. The desk clerk stated that "not all of their suites and fold out sofas" and the ones they have were already occupied by residents staying for the weekend (this was early Friday afternoon). According to her they were first come first served-wonder how early you have to arrive to get one?  They did provide a roll away at my request and insisted the description online states all suites do not have fold out beds (NOT- I checked!). I asked if they could adjust the rate and after some thought, the clerk said they could not since we had made the reservation online and they couldn't change online rates!  Since when?  We  were later  also surprised to know that a train track runs in front of the hotel with trains about every hour or so all night long! Guess which side we were on?  Hardly slept all night! Guess they haven't heard of insulated windows!  Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need to learn that not all guests are going to accept anything they want to deliverand there are other options, albeit in some cases not in that town." Old 300 member"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r128200486-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>128200486</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>I have to travel to this area often, and my husband and I have stayed at this hotel on 3-4 occasions. It is clean and easy to access. The breakfast is not grand, but more than adequate to get you fed and on the road. The building and rooms have always been clean, and we sleep well. This is a small town, so there is a small town friendly feeling from most of the staff. They often do anything they can to help or answer questions. WalMart is right behind them if you need to grab a thing or two. Easy to access I-10, or go down Hwy 36 to take in Bellville, Brenham, and several other wonderful small towns.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I have to travel to this area often, and my husband and I have stayed at this hotel on 3-4 occasions. It is clean and easy to access. The breakfast is not grand, but more than adequate to get you fed and on the road. The building and rooms have always been clean, and we sleep well. This is a small town, so there is a small town friendly feeling from most of the staff. They often do anything they can to help or answer questions. WalMart is right behind them if you need to grab a thing or two. Easy to access I-10, or go down Hwy 36 to take in Bellville, Brenham, and several other wonderful small towns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r122791821-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>122791821</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Very nice, new, as expected</t>
+  </si>
+  <si>
+    <t>This is a pretty new property.  The evening gal at the front was a bit frazelled, but the place was very nice.  I'm never thrilled with the Holiday Inn Express toaster breakfast.  They don't actually have a kitchen, just a warm up station for the pre made egg chunks and ultra thin see thru bacon.  This was as good as other Holiday Inn Express's though, which isn't saying much.  i slept very well.  Bed was comfortable, shower was hot, coffee was excellent.  I caught more to eat down the road toward Houston.  The morning gal was extremely helpful.  They have several people working in the morning, just 1 late at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This is a pretty new property.  The evening gal at the front was a bit frazelled, but the place was very nice.  I'm never thrilled with the Holiday Inn Express toaster breakfast.  They don't actually have a kitchen, just a warm up station for the pre made egg chunks and ultra thin see thru bacon.  This was as good as other Holiday Inn Express's though, which isn't saying much.  i slept very well.  Bed was comfortable, shower was hot, coffee was excellent.  I caught more to eat down the road toward Houston.  The morning gal was extremely helpful.  They have several people working in the morning, just 1 late at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r121701991-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>121701991</t>
+  </si>
+  <si>
+    <t>12/13/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the HI Express in December 2011, and the hotel was fantastic.  I was impressed at how clean the rooms and bathrooms were.  I have been in the hotel industry for over 20 years and there are some things that I really watch out for, and the HI Express exceeded all expectations.  The front desk agent was very friendly and pleasant as well as the room attendant.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r66730851-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>66730851</t>
+  </si>
+  <si>
+    <t>06/07/2010</t>
+  </si>
+  <si>
+    <t>Get out of town!</t>
+  </si>
+  <si>
+    <t>Went to Sealy to get out of town for the weekend and it was very nice and peaceful!! Just what I needed!!!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r64444772-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>64444772</t>
+  </si>
+  <si>
+    <t>05/17/2010</t>
+  </si>
+  <si>
+    <t>Excellent experience and great service!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean n well organized. Rooms were spacious and in excellent condition. Hotel staff was well managed and exceled on team work as well as hospitalilty. Great warm breakfast in the warming. The hotel is also conviniently located between San Antonio and Houston!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r62891064-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>62891064</t>
+  </si>
+  <si>
+    <t>04/30/2010</t>
+  </si>
+  <si>
+    <t>Very new and nice hotel</t>
+  </si>
+  <si>
+    <t>This place was 100% non smoking which was great since I am a non-smoker. The rooms were pretty nice and the staff was too bad either. Quick check-in and relaxing night! All the amenities were new so overall it was an amazing stay!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1246,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1278,2148 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>186</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_340.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r593235425-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>56650</t>
+  </si>
+  <si>
+    <t>1235784</t>
+  </si>
+  <si>
+    <t>593235425</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a fairly new hotel it's pretty run down. The first room we checked into had a terrible moldy and musty smell, the phone didn't work, refrigerator didn't work, room not vacuumed very well, and the toilet had stains in it. So, we got another room. Same issues with dirty carpet and stained toilet. This is our third stay at this hotel. Each time we tell front desk theses issues and they act as if they can do nothing about it. Do yourself a favor and stay somewhere else. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r557698831-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>557698831</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Clean room, nice breakfast buffet</t>
+  </si>
+  <si>
+    <t>Front desk Catherine is pleasant and accommodating to ensure that your stay is great.  Nice large room.  Breakfast buffet has everything to start your day.  Near Walmart and a variety of restaurants nearby.  Easy access off of I-10.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r591784546-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
-    <t>56650</t>
-  </si>
-  <si>
-    <t>1235784</t>
-  </si>
-  <si>
     <t>591784546</t>
   </si>
   <si>
@@ -175,9 +217,6 @@
   </si>
   <si>
     <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r574240945-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
@@ -229,10 +268,40 @@
     <t xml:space="preserve">Always a pleasant stay!!! Located by Walmart, forth time staying here, always clean easy access to I-10, and several restaurants to choose from. Quit community, outside of Houston. Great Breakfast. Nicest hotel in Sealy. </t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r552104679-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>552104679</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Good place to crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work a long ways from home so when there was a threat of ice I stayed here to be closer to work. It was a last second decision. A little more than I wanted to pay given the circumstances but the room was clean, the bed was comfy, the staff were friendly, and i was able to have a warm room with a safe drive back to work the next morning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r547383721-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>547383721</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>rooms were very clean</t>
+  </si>
+  <si>
+    <t>I am picky about motels I stay at but  super 8 exceeded my expectation. Rooms were very clean and spacious. the bed was also very comfortable and nice pillows The staff was very helpful and friendly when I checked in and friendly when I had breakfast and checked out.  Continental breakfast was good  I would recommend to stay here I know I will on future trips to Sealy</t>
+  </si>
+  <si>
+    <t>November 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r540494525-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
@@ -250,9 +319,6 @@
     <t>Had a very nice stay while working in this area. Rooms were very clean and in order.Staff was excellent. They had breakfast ready early for us Oil Field Hands that have to leave early. Checked out after two nights, did not finish job and went back to check back in but they were full for that night, could not get a room there. Being full says they are a very good place to stay. I will stay there when I am working in that area.</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r535859753-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -299,6 +365,54 @@
   </si>
   <si>
     <t>I left my cell phone in the room floor during the breakfast. When I returned, it was gone. I asked the one of the made who cleaned my room if she saw it. She said "No... I didn't see it in #201..." She started talking loud with another maid and seems like in panic mode. Then she came to me with my cell phone said," I think I saw something in the pillow.... is this it..? ". She had my cell phone with credit cards.I reported to Manager what happened. He said "OK". That was it.Additional to that we had four rooms, all rooms smelled of mold heavily. The room light wasn't working, etc...It was Horrible staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r494422487-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>494422487</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Thankfully only 2 nights!</t>
+  </si>
+  <si>
+    <t>I totally understand the storm causing damage to the hotel but that is no reason not to keep the place clean. The stairway from the 1st to 2nd floors was littered with mud (on 2 different days). The one elevator was out of order. The ice machine on the 1st floor was broken. I had the thermostat turned to 60 but the temperature never got below 80!  I'll stay somewhere else even if it means driving farther until this hotel gets a major renovation. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I totally understand the storm causing damage to the hotel but that is no reason not to keep the place clean. The stairway from the 1st to 2nd floors was littered with mud (on 2 different days). The one elevator was out of order. The ice machine on the 1st floor was broken. I had the thermostat turned to 60 but the temperature never got below 80!  I'll stay somewhere else even if it means driving farther until this hotel gets a major renovation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r483325177-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>483325177</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Clean and convenient</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while working in Columbus, TX as that location had no availability.  Nice, clean property and convenient to I-10.  Staff is very friendly.  Nicer-than-I-thought pool in the back complete with rock waterfall.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r450734739-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
@@ -369,6 +483,45 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r428941366-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>428941366</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Nice cozy stay</t>
+  </si>
+  <si>
+    <t>Room was clean and cozy. Didn't stay long enough for breakfast but they had it. Pool and fitness center were also nice. Free wifi and access to business center is also great. Really nice dining area for breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean and cozy. Didn't stay long enough for breakfast but they had it. Pool and fitness center were also nice. Free wifi and access to business center is also great. Really nice dining area for breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r427724555-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>427724555</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Quick Stop</t>
+  </si>
+  <si>
+    <t>Cruised in basically after dinner.  Room was clean and quiet.  Bed was good firmness.  I had read reviews about musty odors though ac was running on moderate temp when I came in and all was good.  Could use more plugs around night stand or copy Hilton and put them right in the lamp!  Price was slightly higher than some of the surrounding hotels/motels though I have stayed in some of them and this is cleaner and though I had a meeting, the breakfast is usually more complete than others.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r427168157-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -384,12 +537,6 @@
     <t>Room smelled like mildew. Bedside table lamp bulb out. Clock didn't work. WIFI (Internet access) didn't work.  Business center computers not useable.breakfast room furniture shabby. Desk clerk couldn't help with internet access; stated she is only a desk clerk, not IT person.MoreShow less</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded November 1, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 1, 2016</t>
-  </si>
-  <si>
     <t>Room smelled like mildew. Bedside table lamp bulb out. Clock didn't work. WIFI (Internet access) didn't work.  Business center computers not useable.breakfast room furniture shabby. Desk clerk couldn't help with internet access; stated she is only a desk clerk, not IT person.More</t>
   </si>
   <si>
@@ -429,6 +576,51 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r392226715-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>392226715</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Best place to stay in Sealy</t>
+  </si>
+  <si>
+    <t>We stayed two nights while visiting friends. We booked the Jacuzzi tub room, which was immaculate. Mid size fridge, microwave, very comfortable mattress and bedding as well. Common area was very nice and so were the pool facilities. We will be staying here again on return trips to Sealy for certain!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r377062561-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>377062561</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>We stayed here one quick night. It was clean and comfortable living upp to HI Expres standard. Breakfast a bit dull, but we did not expect anything better so that was fine. Check-in was quick, but our GPS had this hotel down for another address, so it took some time to find it in the dark. I would come back if I had to stay in Sealy again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here one quick night. It was clean and comfortable living upp to HI Expres standard. Breakfast a bit dull, but we did not expect anything better so that was fine. Check-in was quick, but our GPS had this hotel down for another address, so it took some time to find it in the dark. I would come back if I had to stay in Sealy again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r340384087-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -492,12 +684,51 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>One can normally expect a very good hotel from Holiday Inn.Nice looking facility. Great food and selection of food. Helpful staff. And clean rooms. Normally I give Holiday Inns five stars. But this one fell down in a couple of areas. First of all, I found some dabs of a "mud-like" substance on the bathtub walls. Housekeeping should have found this. And the second thing that didn;t seem right to me was that the desk clerk didn't honor my government ID; he simply said that the hotel could only take so many. How did he know that the limit had been reached? He didn't even try to plug it into the computer. And the next night of  our trip we stayed at another Holiday Inn, and the same thing happened.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r320790826-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>320790826</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>"Holiday Inn Express Sealy Texas"</t>
+  </si>
+  <si>
+    <t>My experience at Holiday Inn Express Sealy is all ways pleasant. The rooms are clean and spacious, the dinning area is nice. The pool is great, there's room to park a truck out of the way in the back. The hotel is a little pricey.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r314879247-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>314879247</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Emergency Use Only</t>
+  </si>
+  <si>
+    <t>The hotel is older and tired. The AC was intermittent and bed uncomfortable. Rooms desperately need an update. The breakfast was free and overpriced at that. I usually don't expect much from interstate motels but one can usually count on Holiday Inn to be a step above. The pool however, was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is older and tired. The AC was intermittent and bed uncomfortable. Rooms desperately need an update. The breakfast was free and overpriced at that. I usually don't expect much from interstate motels but one can usually count on Holiday Inn to be a step above. The pool however, was nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r289813641-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -570,6 +801,45 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r251020582-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>251020582</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I, along with several other staff members of my company have been staying here since December while in the area on a project and I have to say this is one of the best we have had. SUPER staff and management, friendly housekeeping team that does an excellent job and keeps the rooms in top-notch shape. Our rooms are clean and comfortable, sheets/pillow cases are changed daily and the room is always fresh after they leave it. Not much for a view, but this is not a resort hotel. Breakfast is the typical scrambled egg/sausage/cereal deal, but there's always plenty and coffee is refilled quickly. Several places close for good food and wally-world is right behind the motel within walking distance. Fairly quite town without all of the traffic nonsense in Houston.You're greeted with a smile on check in, and the Manager (Jay) is a super nice guy. Any issues we may have had were taken care of before we got back in the evening. Conference room is set up with overhead projector and screen, easy hook up to a laptop for presentations.Have to say THANK YOU to the entire staff here for making our long stay feel almost like home. We'll definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I, along with several other staff members of my company have been staying here since December while in the area on a project and I have to say this is one of the best we have had. SUPER staff and management, friendly housekeeping team that does an excellent job and keeps the rooms in top-notch shape. Our rooms are clean and comfortable, sheets/pillow cases are changed daily and the room is always fresh after they leave it. Not much for a view, but this is not a resort hotel. Breakfast is the typical scrambled egg/sausage/cereal deal, but there's always plenty and coffee is refilled quickly. Several places close for good food and wally-world is right behind the motel within walking distance. Fairly quite town without all of the traffic nonsense in Houston.You're greeted with a smile on check in, and the Manager (Jay) is a super nice guy. Any issues we may have had were taken care of before we got back in the evening. Conference room is set up with overhead projector and screen, easy hook up to a laptop for presentations.Have to say THANK YOU to the entire staff here for making our long stay feel almost like home. We'll definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r241177247-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>241177247</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Good place to stop and rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This weekend my husband and I stopped here to stay the night.   It was late but the staff was friendly.  The room was clean and beautifully decorated.   I only wish our window had blackout curtains cause Walmart was across from our room and the lights were on all night long.  But all in all I would stay there again. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r227781224-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -588,9 +858,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r226287825-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -624,6 +891,39 @@
     <t>Hotel rm was cleaned consistently, staff was helpful and courteous, the morning breakfast had something for everyone to eat. The wifi was strong and most importantly the air conditioning worked great. I would definitely recommend this hotel to business travellers or families with children.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r221224019-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>221224019</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Staff extremely helpful</t>
+  </si>
+  <si>
+    <t>Havn't stayed yet, but had an unusual situation. Nicole at the hotel, solved the problem.  Had to pay for a guest that had no credit card.  Nicole faxed me an authorization and helped with an extremely stressful problem.......She was courteous, patient and totally professional.  Other hotels that I called were not only not helpful, but downright rude...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r203054041-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>203054041</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>good nights rest in a super clean room</t>
+  </si>
+  <si>
+    <t>We were recognized as Platinum Elite members and got a room upgrade.  Rooms were nice and clean.  Our only issue was figuring out the tv, the remote would shut off tge cable when you turned on the tv,  had to hold the remote 1 inch away from comcast box to turn it on without shutting off the tv.  Nice stay overall.  Great staff.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r201444784-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -654,9 +954,6 @@
     <t>They put us in a handicapped room when we arrived at 5 pm, although the place did not appear to be full.  Didn't understand this, but didn't complain; it was still a nice room and very comfortable. The TV's are small, but at least there was a working Guide channel--that was nice for a change.  The beds were surprisingly comfortable, and the shower was excellent.  It was hard to darken the room due to all the security flood lights on one side and Wal-Mart parking lot on the other.  Hotels in this situation need to have extremely well-fitting window coverings, and they never do.  There was some train noise although it didn't wake me up at night.  Trains just go with the territory in a lot of small towns, and they are required by law to blow the horn at certain types of intersections.  If you have no tolerance for trains, stay somewhere else, but I actually find trains strangely soothing--they take me back to childhood, I suppose.  This hotel is ideally located for me, so I will tolerate the nostalgic sounds of a small town.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>They put us in a handicapped room when we arrived at 5 pm, although the place did not appear to be full.  Didn't understand this, but didn't complain; it was still a nice room and very comfortable. The TV's are small, but at least there was a working Guide channel--that was nice for a change.  The beds were surprisingly comfortable, and the shower was excellent.  It was hard to darken the room due to all the security flood lights on one side and Wal-Mart parking lot on the other.  Hotels in this situation need to have extremely well-fitting window coverings, and they never do.  There was some train noise although it didn't wake me up at night.  Trains just go with the territory in a lot of small towns, and they are required by law to blow the horn at certain types of intersections.  If you have no tolerance for trains, stay somewhere else, but I actually find trains strangely soothing--they take me back to childhood, I suppose.  This hotel is ideally located for me, so I will tolerate the nostalgic sounds of a small town.More</t>
   </si>
   <si>
@@ -673,6 +970,45 @@
   </si>
   <si>
     <t>My husband and I stayed here while on business in the area.  The room was a great room and very clean and enormous, but boy those trains that come through at the crack of dawn are heavy on the horns!  There were three trains a night, so I slept well but was up early!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r155361639-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>155361639</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay had problems with are tv we call the front desk and told them they offered to move us to a different room. Very nice people breakfast  was great. Will stay there again if I'm ever around there again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r154902215-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>154902215</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Should have read the reviews before we booked this hotel.</t>
+  </si>
+  <si>
+    <t>The TV in our room had no signal. The night desk attendant couldn't help us get it working; we hoped the manager would credit us for the inconvenience but he just ignored us.   The hotel appears newish, but is not well taken care of.  Found silverfish in our room yuk!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Sealy, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>The TV in our room had no signal. The night desk attendant couldn't help us get it working; we hoped the manager would credit us for the inconvenience but he just ignored us.   The hotel appears newish, but is not well taken care of.  Found silverfish in our room yuk!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r146265255-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
@@ -747,6 +1083,45 @@
 Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need...We recently stayed at this HI Express in Sealy, TX. We had made advance reservations on line and reserved a suite assuming there would be a foldout sofa in the living area for our grandson. Imagine our surprise when it only had a small love seat that didn't make a bed. The desk clerk stated that "not all of their suites and fold out sofas" and the ones they have were already occupied by residents staying for the weekend (this was early Friday afternoon). According to her they were first come first served-wonder how early you have to arrive to get one?  They did provide a roll away at my request and insisted the description online states all suites do not have fold out beds (NOT- I checked!). I asked if they could adjust the rate and after some thought, the clerk said they could not since we had made the reservation online and they couldn't change online rates!  Since when?  We  were later  also surprised to know that a train track runs in front of the hotel with trains about every hour or so all night long! Guess which side we were on?  Hardly slept all night! Guess they haven't heard of insulated windows!  Otherwise it is a beautiful hotel with adequate service.. Breakfast was excellent .  However, i doubt if I will stay at this facility again, considering their attitude and our experience. These small town operators need to learn that not all guests are going to accept anything they want to deliverand there are other options, albeit in some cases not in that town." Old 300 member"More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r131443612-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>131443612</t>
+  </si>
+  <si>
+    <t>06/06/2012</t>
+  </si>
+  <si>
+    <t>So disappointing</t>
+  </si>
+  <si>
+    <t>Sitting in my room at the moment...paid $120, no budging on the price...only had queen beds left...have been in the room for 1 hour and have had 2 trains go by and both have let us know by blowing their horns...doors slam when people come in or leave their rooms...needless to say, this the first and last time we will stay here, if the time comes will check out Super 8. Did not get to check out trip advisor as we had no idea where we would be stopping for the evening, but feel like this was a mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Sitting in my room at the moment...paid $120, no budging on the price...only had queen beds left...have been in the room for 1 hour and have had 2 trains go by and both have let us know by blowing their horns...doors slam when people come in or leave their rooms...needless to say, this the first and last time we will stay here, if the time comes will check out Super 8. Did not get to check out trip advisor as we had no idea where we would be stopping for the evening, but feel like this was a mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r131300075-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>131300075</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, clean and good value</t>
+  </si>
+  <si>
+    <t>Stayed in the hotel while on business. The breakfast was good and an attendant was present to make sure everything was plentiful. The front desk personnel were courteous and helpful. I would stay there again anytime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r128200486-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -807,6 +1182,42 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r120784077-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>120784077</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>Very comfortable, clean and convenient</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and efficient. The rooms were quit and comfortable. The hotel is only about two blocks distance from Interstate 10 highway, but far enough away that the road noise is never a problem. The room was clean, and well equipped. The price was in line with that area, and the breakfast was very well supplied with good food.      There are restaurants and convenience stores within walking distance of the hotel, which is an added convenience.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r90659931-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>90659931</t>
+  </si>
+  <si>
+    <t>12/25/2010</t>
+  </si>
+  <si>
+    <t>Great stay and staff was very nice</t>
+  </si>
+  <si>
+    <t>This hotel is new and the staff is very nice.  The hotel is very clean, location is right off I-10.  Rooms are very spacious.  Pool is outdoor, but the pool area is very clean and even has a water fall at one end.  I would recommend this hotel to anyone in the area of Sealy, TX</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r66730851-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
   </si>
   <si>
@@ -853,6 +1264,51 @@
   </si>
   <si>
     <t>This place was 100% non smoking which was great since I am a non-smoker. The rooms were pretty nice and the staff was too bad either. Quick check-in and relaxing night! All the amenities were new so overall it was an amazing stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r58272632-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>58272632</t>
+  </si>
+  <si>
+    <t>03/10/2010</t>
+  </si>
+  <si>
+    <t>Bad Services</t>
+  </si>
+  <si>
+    <t>We visited the hotel and experience one of the worst services I have ever gotten from Holiday Inn Express. I asked for manager when the front desk lady could not help us and called the manager name Jay Patel and he said he was busy can't help us and he told the front desk lady to tell us to contact him the next day. I did not expect service like that from a Holiday Inn Franchise. I would not recommend any one to stay at this property.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56650-d1235784-r37908045-Holiday_Inn_Express_Hotel_Suites_Sealy-Sealy_Texas.html</t>
+  </si>
+  <si>
+    <t>37908045</t>
+  </si>
+  <si>
+    <t>08/17/2009</t>
+  </si>
+  <si>
+    <t>Mini-Holiday at 5-STAR Inn ... would do again &amp; again!!</t>
+  </si>
+  <si>
+    <t>Faced with a wedding trip to small/rural town with criteria that included Jacuzzi Room &amp; nearby Greek Dining, I was lucky to find this brand new motel down the street!  Well, I can't say other maps will NOT get you lost, but the Trip Advisor map has them located correctly.  Somehow I found a very low rate on line (prepay, no cancellation ... more on that later).
+Once located, we did not fear rain due to their generous unloading porte-cochere zone &amp; free front parking.  Our express check-in kicked in and 3 doors down we were triple locked in and massaging sore backs in Jacuzzi (the real thing) for two, still plenty of time to arrive at wedding early, thanks to Business Center @ Yahoo maps.
+Vending Pepsi/snacks &amp; Scotsman filtered ice nearby but out of hearing finalized that day with flat screen cable TV.  Pillows are noted as soft or firm for each side of King, easy to sleep &amp; very comfortable with state of the art PTAC/HVAC (thru-wall heat/air conditioning).
+Nice bathroom amenities upon waking but no need for coffee machine with gourmet coffee made a few yards down hall in Breakfast Room (gratis) complete with huge TV &amp; aquarium, which a ribbon of rear windows displaying rock waterfall into 42-60-42" deep pool.  After 10am a meal that includes yummy to healthy, the pool area is open complete with cabanas (bathrooms), wrought iron-esque fencing &amp; water cooler fountains....Faced with a wedding trip to small/rural town with criteria that included Jacuzzi Room &amp; nearby Greek Dining, I was lucky to find this brand new motel down the street!  Well, I can't say other maps will NOT get you lost, but the Trip Advisor map has them located correctly.  Somehow I found a very low rate on line (prepay, no cancellation ... more on that later). Once located, we did not fear rain due to their generous unloading porte-cochere zone &amp; free front parking.  Our express check-in kicked in and 3 doors down we were triple locked in and massaging sore backs in Jacuzzi (the real thing) for two, still plenty of time to arrive at wedding early, thanks to Business Center @ Yahoo maps. Vending Pepsi/snacks &amp; Scotsman filtered ice nearby but out of hearing finalized that day with flat screen cable TV.  Pillows are noted as soft or firm for each side of King, easy to sleep &amp; very comfortable with state of the art PTAC/HVAC (thru-wall heat/air conditioning). Nice bathroom amenities upon waking but no need for coffee machine with gourmet coffee made a few yards down hall in Breakfast Room (gratis) complete with huge TV &amp; aquarium, which a ribbon of rear windows displaying rock waterfall into 42-60-42" deep pool.  After 10am a meal that includes yummy to healthy, the pool area is open complete with cabanas (bathrooms), wrought iron-esque fencing &amp; water cooler fountains.  Swim or hang/doze on curb can be relaxing &amp; habit forming. Just barely enough time to shower, pack &amp; checkout @ 11am official time - was a breeze, save an interruption by maintenance man needing to "check out shower/tub" ?!?!?! but we didn't want to retire there just yet anyway - on the road to find that Greek dining experience closer to Houston by jumping on nearby IH 10. Have any problems?  Jay is the manager and will do whatever possible to make it right, inside Holiday Inn rules &amp; regulations. Note that Holiday Inn rates that state noncancelable in short means they have your money &amp; you no longer have it, regardless of refund attempts &amp; plenty of good excuses.  The most hope you can muster would be that they are so overwhelmed with customers for your room, they easily "sell" it to another at the last minute (literally) when all others they "own" are finally booked (my impression).  The odds appears to be ~3% of money returned you in such a deal &amp; considering a rural area.  Advice:  selling your room for a refund is tricky - talk only to manager, as 1-800 Customer Relations get things all screwed up, if anything gets done at all. IN A NUTSHELLPROS:Non smoking hotelKing bed rooms, "feature" = Jacuzzi for two in room (literally ~6' from bed)Love seat, desk chair recliner2 empty mini-ref, 2 microwaves ... is this a party room?  So generous!First class HVACGratis breakfast with many offerings, bottomless gourmet coffee, half &amp; half/2%Huge TV over mini fire set to news early, cartoons later for kidsHuge aquarium, nicely doneInterior decorator touches are everywhereRear views of beautiful waterfall/pool area (also Walmart in selected seating if preferred)Easy to find on HWY 36 just South of IH 10 - just a few blocks travelFriendly helpful staff CONS:Consider this is a NEW motel and some of these bugs are a) in progress being fixed or b) common to most hotels, even high use luxury ones .....-Kohler toilet has a Kohler seat that refuses to stay UP, making much noise upon crashing down &amp; a bit more difficult to manage-Jacuzzi for two is a Builder's model so don't expect all the bells &amp; whistles - again, the Plumber is certainly not Master grade and has installed an overflow drain cap over a hold larger than it can cover (it appears the black rubber gasket is stopping leaks)-No ceiling light nor wall sconces near the Jacuzzi makes this area dim; hopefully the fluorescent table lamp does not find its way into the tub and if so, it is on a GFIC circuit as prescribed by Building Codes.-No light over in room coffee station seems odd with interior decoration consultation obvious elsewhere - the goods are inside the filter housing if you didn't bring a flashlight-The desk chair recliner was broken on both sides, as if it fell out of a window-One of the 2 mini-refrigerators was not yet bolted down/in-Near train noises but few heavy truck sounds .... so are the other motels-No honey on buffet for either rolls nor coffee-Pool open 10am-10pm, then checkout is 11am????-Ages limits on pool rules are conflicting - better ask front desk, as there is no lifeguard (typical for this type lodging)-The ease of travel from parking to room comes with thoughts about security issues, even with a triple lock heavy door ..... ??-Business Center:  only one Epson ink printer connected to only one of the 2 computers; it was out of ink &amp; reported as such ~5pm .... still out of ink next morning-It is suggested any whirlpool tub be equipped with a hand-held shower wand for rinsing hair, etc. (also good for maid cleaning tubs) ... and preventing soap-removing splashing (causes long term wear on surrounding mirrors and possible future hidden drainage/mildew)-Check-in conflicts: 2pm posted on web, 3pm posted on reservation CONCLUSION:Considering all the pros &amp; cons, then weighing in our personal experiences - this is definitely a DO AGAIN and certainly THE OASIS in our road trip.  We will remember the great experiences for a long time &amp; easily forget the expenditures quickly.  Book it, enjoy but remember I get all the credit for the great idea.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Faced with a wedding trip to small/rural town with criteria that included Jacuzzi Room &amp; nearby Greek Dining, I was lucky to find this brand new motel down the street!  Well, I can't say other maps will NOT get you lost, but the Trip Advisor map has them located correctly.  Somehow I found a very low rate on line (prepay, no cancellation ... more on that later).
+Once located, we did not fear rain due to their generous unloading porte-cochere zone &amp; free front parking.  Our express check-in kicked in and 3 doors down we were triple locked in and massaging sore backs in Jacuzzi (the real thing) for two, still plenty of time to arrive at wedding early, thanks to Business Center @ Yahoo maps.
+Vending Pepsi/snacks &amp; Scotsman filtered ice nearby but out of hearing finalized that day with flat screen cable TV.  Pillows are noted as soft or firm for each side of King, easy to sleep &amp; very comfortable with state of the art PTAC/HVAC (thru-wall heat/air conditioning).
+Nice bathroom amenities upon waking but no need for coffee machine with gourmet coffee made a few yards down hall in Breakfast Room (gratis) complete with huge TV &amp; aquarium, which a ribbon of rear windows displaying rock waterfall into 42-60-42" deep pool.  After 10am a meal that includes yummy to healthy, the pool area is open complete with cabanas (bathrooms), wrought iron-esque fencing &amp; water cooler fountains....Faced with a wedding trip to small/rural town with criteria that included Jacuzzi Room &amp; nearby Greek Dining, I was lucky to find this brand new motel down the street!  Well, I can't say other maps will NOT get you lost, but the Trip Advisor map has them located correctly.  Somehow I found a very low rate on line (prepay, no cancellation ... more on that later). Once located, we did not fear rain due to their generous unloading porte-cochere zone &amp; free front parking.  Our express check-in kicked in and 3 doors down we were triple locked in and massaging sore backs in Jacuzzi (the real thing) for two, still plenty of time to arrive at wedding early, thanks to Business Center @ Yahoo maps. Vending Pepsi/snacks &amp; Scotsman filtered ice nearby but out of hearing finalized that day with flat screen cable TV.  Pillows are noted as soft or firm for each side of King, easy to sleep &amp; very comfortable with state of the art PTAC/HVAC (thru-wall heat/air conditioning). Nice bathroom amenities upon waking but no need for coffee machine with gourmet coffee made a few yards down hall in Breakfast Room (gratis) complete with huge TV &amp; aquarium, which a ribbon of rear windows displaying rock waterfall into 42-60-42" deep pool.  After 10am a meal that includes yummy to healthy, the pool area is open complete with cabanas (bathrooms), wrought iron-esque fencing &amp; water cooler fountains.  Swim or hang/doze on curb can be relaxing &amp; habit forming. Just barely enough time to shower, pack &amp; checkout @ 11am official time - was a breeze, save an interruption by maintenance man needing to "check out shower/tub" ?!?!?! but we didn't want to retire there just yet anyway - on the road to find that Greek dining experience closer to Houston by jumping on nearby IH 10. Have any problems?  Jay is the manager and will do whatever possible to make it right, inside Holiday Inn rules &amp; regulations. Note that Holiday Inn rates that state noncancelable in short means they have your money &amp; you no longer have it, regardless of refund attempts &amp; plenty of good excuses.  The most hope you can muster would be that they are so overwhelmed with customers for your room, they easily "sell" it to another at the last minute (literally) when all others they "own" are finally booked (my impression).  The odds appears to be ~3% of money returned you in such a deal &amp; considering a rural area.  Advice:  selling your room for a refund is tricky - talk only to manager, as 1-800 Customer Relations get things all screwed up, if anything gets done at all. IN A NUTSHELLPROS:Non smoking hotelKing bed rooms, "feature" = Jacuzzi for two in room (literally ~6' from bed)Love seat, desk chair recliner2 empty mini-ref, 2 microwaves ... is this a party room?  So generous!First class HVACGratis breakfast with many offerings, bottomless gourmet coffee, half &amp; half/2%Huge TV over mini fire set to news early, cartoons later for kidsHuge aquarium, nicely doneInterior decorator touches are everywhereRear views of beautiful waterfall/pool area (also Walmart in selected seating if preferred)Easy to find on HWY 36 just South of IH 10 - just a few blocks travelFriendly helpful staff CONS:Consider this is a NEW motel and some of these bugs are a) in progress being fixed or b) common to most hotels, even high use luxury ones .....-Kohler toilet has a Kohler seat that refuses to stay UP, making much noise upon crashing down &amp; a bit more difficult to manage-Jacuzzi for two is a Builder's model so don't expect all the bells &amp; whistles - again, the Plumber is certainly not Master grade and has installed an overflow drain cap over a hold larger than it can cover (it appears the black rubber gasket is stopping leaks)-No ceiling light nor wall sconces near the Jacuzzi makes this area dim; hopefully the fluorescent table lamp does not find its way into the tub and if so, it is on a GFIC circuit as prescribed by Building Codes.-No light over in room coffee station seems odd with interior decoration consultation obvious elsewhere - the goods are inside the filter housing if you didn't bring a flashlight-The desk chair recliner was broken on both sides, as if it fell out of a window-One of the 2 mini-refrigerators was not yet bolted down/in-Near train noises but few heavy truck sounds .... so are the other motels-No honey on buffet for either rolls nor coffee-Pool open 10am-10pm, then checkout is 11am????-Ages limits on pool rules are conflicting - better ask front desk, as there is no lifeguard (typical for this type lodging)-The ease of travel from parking to room comes with thoughts about security issues, even with a triple lock heavy door ..... ??-Business Center:  only one Epson ink printer connected to only one of the 2 computers; it was out of ink &amp; reported as such ~5pm .... still out of ink next morning-It is suggested any whirlpool tub be equipped with a hand-held shower wand for rinsing hair, etc. (also good for maid cleaning tubs) ... and preventing soap-removing splashing (causes long term wear on surrounding mirrors and possible future hidden drainage/mildew)-Check-in conflicts: 2pm posted on web, 3pm posted on reservation CONCLUSION:Considering all the pros &amp; cons, then weighing in our personal experiences - this is definitely a DO AGAIN and certainly THE OASIS in our road trip.  We will remember the great experiences for a long time &amp; easily forget the expenditures quickly.  Book it, enjoy but remember I get all the credit for the great idea.More</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1843,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1398,13 +1854,9 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1448,7 +1900,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1456,23 +1908,23 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1488,48 +1940,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1545,54 +2001,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1632,30 +2086,24 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1671,58 +2119,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1738,48 +2176,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1795,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1804,43 +2248,45 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1856,7 +2302,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1865,35 +2311,37 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1901,7 +2349,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1917,7 +2365,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1926,39 +2374,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1974,34 +2432,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
         <v>121</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2012,10 +2470,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2031,42 +2493,42 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>128</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>129</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>130</v>
       </c>
-      <c r="L13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>132</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2078,7 +2540,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2094,34 +2556,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>133</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2132,14 +2594,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>139</v>
-      </c>
-      <c r="X14" t="s">
-        <v>140</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2155,7 +2613,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2164,22 +2622,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -2193,10 +2651,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>142</v>
+      </c>
+      <c r="X15" t="s">
+        <v>143</v>
+      </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2212,46 +2674,44 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
         <v>148</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>149</v>
-      </c>
-      <c r="J16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" t="s">
-        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2259,7 +2719,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2275,7 +2735,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2284,49 +2744,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -2342,7 +2796,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2351,43 +2805,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="N18" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" t="s">
-        <v>172</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2403,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2412,26 +2868,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>179</v>
-      </c>
-      <c r="O19" t="s">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2441,10 +2893,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" t="s">
+        <v>157</v>
+      </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2460,7 +2916,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2469,43 +2925,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -2521,7 +2973,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2530,34 +2982,34 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2568,7 +3020,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2584,7 +3036,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2593,35 +3045,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>121</v>
+      </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
@@ -2637,7 +3097,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2646,45 +3106,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
@@ -2700,58 +3162,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>203</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="X24" t="s">
         <v>204</v>
       </c>
-      <c r="J24" t="s">
+      <c r="Y24" t="s">
         <v>205</v>
-      </c>
-      <c r="K24" t="s">
-        <v>206</v>
-      </c>
-      <c r="L24" t="s">
-        <v>207</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>208</v>
-      </c>
-      <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="25">
@@ -2767,58 +3223,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
         <v>210</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>211</v>
-      </c>
-      <c r="J25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" t="s">
-        <v>213</v>
-      </c>
-      <c r="L25" t="s">
-        <v>214</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>208</v>
       </c>
       <c r="O25" t="s">
         <v>60</v>
       </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
@@ -2834,60 +3280,54 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
         <v>215</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>216</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>217</v>
       </c>
-      <c r="K26" t="s">
-        <v>218</v>
-      </c>
-      <c r="L26" t="s">
-        <v>219</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>220</v>
-      </c>
       <c r="O26" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>221</v>
-      </c>
-      <c r="X26" t="s">
-        <v>222</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -2903,7 +3343,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2912,41 +3352,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2954,7 +3390,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +3406,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2979,38 +3415,34 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>3</v>
@@ -3018,10 +3450,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>230</v>
+      </c>
+      <c r="X28" t="s">
+        <v>231</v>
+      </c>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
@@ -3037,58 +3473,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
         <v>237</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>238</v>
       </c>
-      <c r="J29" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" t="s">
-        <v>240</v>
-      </c>
-      <c r="L29" t="s">
-        <v>241</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>242</v>
-      </c>
       <c r="O29" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
@@ -3104,56 +3540,50 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" t="s">
         <v>244</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>245</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>246</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
         <v>247</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>248</v>
       </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="X30" t="s">
         <v>249</v>
       </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
       <c r="Y30" t="s">
         <v>250</v>
       </c>
@@ -3192,30 +3622,20 @@
         <v>255</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
         <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
@@ -3259,7 +3679,7 @@
         <v>261</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
         <v>262</v>
@@ -3267,18 +3687,14 @@
       <c r="O32" t="s">
         <v>60</v>
       </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3289,7 +3705,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
@@ -3305,7 +3721,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3314,45 +3730,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="N33" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
@@ -3368,7 +3778,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3377,35 +3787,29 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -3419,7 +3823,1575 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" t="s">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s">
+        <v>307</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s">
+        <v>313</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>260</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>324</v>
+      </c>
+      <c r="X43" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>333</v>
+      </c>
+      <c r="X44" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>346</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J47" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" t="s">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>363</v>
+      </c>
+      <c r="J49" t="s">
+        <v>364</v>
+      </c>
+      <c r="K49" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" t="s">
+        <v>366</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>367</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>374</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" t="s">
+        <v>402</v>
+      </c>
+      <c r="K55" t="s">
+        <v>403</v>
+      </c>
+      <c r="L55" t="s">
+        <v>404</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>406</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>399</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+      <c r="J57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>415</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58694</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>421</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
